--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,32 +443,32 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>BCI mode of delivery</t>
         </is>
@@ -506,13 +506,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:011055</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>somatic alteration mode of delivery</t>
+          <t>individual-based mode of delivery</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -520,30 +520,25 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Includes surgery.</t>
+          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011059</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pull mode of delivery</t>
+          <t>interactional mode of delivery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -551,10 +546,10 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -563,13 +558,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011064</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>informational mode of delivery</t>
+          <t>gamification mode of delivery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -577,41 +572,41 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>electronic mode of delivery</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -620,38 +615,33 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>electronic environmental object mode of delivery</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Includes robots, and 'internet of things'.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -659,16 +649,16 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>electronic billboard mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -677,7 +667,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -685,78 +675,68 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>playable electronic storage mode of delivery</t>
+          <t>alimentary mode of delivery</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>radio broadcast mode of delivery</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ingestable liquid mode of delivery</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>mobile digital device mode of delivery</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -765,7 +745,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -773,16 +753,16 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>e-book mode of delivery</t>
+          <t>transdermal mode of delivery</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -791,7 +771,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -799,30 +779,25 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>television mode of delivery</t>
+          <t>buccal mode of delivery</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Includes internet and satellite television.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -830,25 +805,30 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>mobile application mode of delivery</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -856,16 +836,16 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>email mode of delivery</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -874,24 +854,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>computer mode of delivery</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>intramuscular injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -900,24 +880,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>website mode of delivery</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>subcutaneous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -926,24 +906,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>call mode of delivery</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>intravenous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -952,86 +932,81 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>physical stimulus mode of delivery</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Includes automated calls and audio messaging.</t>
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>video call mode of delivery</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>electrical stimulation mode of delivery</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1040,7 +1015,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1048,25 +1023,30 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>video game mode of delivery</t>
+          <t>physical pressure mode of delivery</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1074,16 +1054,16 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>virtual reality mode of delivery</t>
+          <t>wearable stimulus mode of delivery</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1092,7 +1072,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1100,30 +1080,30 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>wearable electronic device mode of delivery</t>
+          <t>light exposure mode of delivery</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1131,47 +1111,42 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3-D projection mode of delivery</t>
+          <t>temperature mode of delivery</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>textual mode of delivery</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>uni-directional mode of delivery</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves written text.</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1180,50 +1155,55 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011065</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>human interactional mode of delivery</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>arts feature mode of delivery</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011003</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>pair-based mode of delivery</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>face to face mode of delivery</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1232,24 +1212,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>push mode of delivery</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>at-a-distance mode of delivery</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1258,55 +1238,50 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>pull mode of delivery</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>synchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>public notice mode of delivery</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1315,107 +1290,117 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>somatic alteration mode of delivery</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>letter mode of delivery</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Includes surgery.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>informational mode of delivery</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>printed publication mode of delivery</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>labelling mode of delivery</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>printed material mode of delivery</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Informational mode of delivery that involves use of printed material.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>public notice mode of delivery</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves visual images.</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1424,24 +1409,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:011006</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>audio informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>letter mode of delivery</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves sound.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1450,81 +1435,81 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>gamification mode of delivery</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>labelling mode of delivery</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>interactional mode of delivery</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>printed publication mode of delivery</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>asynchronous mode of delivery</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>audio informational mode of delivery</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+          <t>Informational mode of delivery that involves sound.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1533,24 +1518,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>push mode of delivery</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>human interactional mode of delivery</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1559,24 +1544,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011003</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>synchronous mode of delivery</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>face to face mode of delivery</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1585,24 +1570,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>uni-directional mode of delivery</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>at-a-distance mode of delivery</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1611,24 +1596,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>pair-based mode of delivery</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>electronic mode of delivery</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1637,112 +1622,107 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011033</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>environmental change mode of delivery</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>computer mode of delivery</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011057</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>group-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>wearable electronic device mode of delivery</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>arts feature mode of delivery</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>e-book mode of delivery</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>mobile application mode of delivery</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1751,33 +1731,38 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>electronic environmental object mode of delivery</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1785,16 +1770,16 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>alimentary mode of delivery</t>
+          <t>electronic billboard mode of delivery</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1803,24 +1788,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>online press mode of delivery</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1829,24 +1814,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>pill mode of delivery</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>website mode of delivery</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1855,7 +1840,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1863,16 +1848,16 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>mobile digital device mode of delivery</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1881,7 +1866,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1889,16 +1874,16 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>buccal mode of delivery</t>
+          <t>virtual reality mode of delivery</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1907,7 +1892,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1915,68 +1900,78 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>television mode of delivery</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>intramuscular injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>playable electronic storage mode of delivery</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>email mode of delivery</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+          <t>Electronic mode of delivery that involves communication by email.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1985,33 +1980,38 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>subcutaneous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>radio broadcast mode of delivery</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2019,16 +2019,16 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>transdermal mode of delivery</t>
+          <t>video game mode of delivery</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2037,7 +2037,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2045,47 +2045,42 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>call mode of delivery</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Includes insulin pump.</t>
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2094,59 +2089,69 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>temperature mode of delivery</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Call mode of delivery that involves textual information in the communication.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>wearable stimulus mode of delivery</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2154,124 +2159,119 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>physical pressure mode of delivery</t>
+          <t>3-D projection mode of delivery</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Includes massage.</t>
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>light exposure mode of delivery</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>textual mode of delivery</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Informational mode of delivery that involves written text.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Includes photo therapy</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>electrical stimulation mode of delivery</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>mass media mode of delivery</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>This is a form of mass media.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>chewable substance mode of delivery</t>
+          <t>visual informational mode of delivery</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
+          <t>Informational mode of delivery that involves visual images.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011055</t>
+          <t>BCIO:011033</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>individual-based mode of delivery</t>
+          <t>environmental change mode of delivery</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2279,10 +2279,93 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
+          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BCIO:011057</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>group-based mode of delivery</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BCIO:011061</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>asynchronous mode of delivery</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BCIO:050557</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>social influence intervention through mass media</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -443,32 +443,32 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>BCI mode of delivery</t>
         </is>
@@ -506,13 +506,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:011055</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>individual-based mode of delivery</t>
+          <t>pair-based mode of delivery</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -520,7 +520,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -532,13 +532,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>interactional mode of delivery</t>
+          <t>pull mode of delivery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -546,7 +546,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -558,13 +558,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
+          <t>BCIO:011061</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gamification mode of delivery</t>
+          <t>asynchronous mode of delivery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -572,30 +572,25 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011033</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>environmental change mode of delivery</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -603,33 +598,38 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -641,21 +641,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>inhalation mode of delivery</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -702,12 +702,12 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ingestable liquid mode of delivery</t>
+          <t>pill mode of delivery</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -719,7 +719,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -728,12 +728,12 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>pill mode of delivery</t>
+          <t>ingestable liquid mode of delivery</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -745,7 +745,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -753,25 +753,30 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>transdermal mode of delivery</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -779,13 +784,13 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>buccal mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -797,7 +802,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -805,44 +810,39 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>injection mode of delivery</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>intravenous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -863,12 +863,12 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>intramuscular injection mode of delivery</t>
+          <t>subcutaneous injection mode of delivery</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -889,12 +889,12 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>subcutaneous injection mode of delivery</t>
+          <t>intramuscular injection mode of delivery</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -906,21 +906,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>transdermal mode of delivery</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -932,31 +932,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>chewable substance mode of delivery</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>buccal mode of delivery</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
@@ -989,7 +984,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -997,18 +992,23 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>electrical stimulation mode of delivery</t>
+          <t>light exposure mode of delivery</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Includes massage.</t>
         </is>
@@ -1046,7 +1046,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1054,13 +1054,13 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>wearable stimulus mode of delivery</t>
+          <t>electrical stimulation mode of delivery</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1080,30 +1080,25 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>light exposure mode of delivery</t>
+          <t>temperature mode of delivery</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1111,13 +1106,13 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>temperature mode of delivery</t>
+          <t>wearable stimulus mode of delivery</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1129,39 +1124,44 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>uni-directional mode of delivery</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>arts feature mode of delivery</t>
+          <t>informational mode of delivery</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1169,7 +1169,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1177,30 +1177,30 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>pair-based mode of delivery</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>human interactional mode of delivery</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1212,21 +1212,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>push mode of delivery</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>at-a-distance mode of delivery</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1238,21 +1238,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011003</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>pull mode of delivery</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>face to face mode of delivery</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1264,109 +1264,104 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>synchronous mode of delivery</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>printed material mode of delivery</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+          <t>Informational mode of delivery that involves use of printed material.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:011006</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>somatic alteration mode of delivery</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>letter mode of delivery</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Includes surgery.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>public notice mode of delivery</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>printed publication mode of delivery</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1374,16 +1369,16 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1391,13 +1386,13 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>public notice mode of delivery</t>
+          <t>labelling mode of delivery</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1409,21 +1404,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>letter mode of delivery</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>electronic mode of delivery</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1435,7 +1430,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1443,13 +1438,13 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>labelling mode of delivery</t>
+          <t>e-book mode of delivery</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1461,7 +1456,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1469,13 +1464,13 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>printed publication mode of delivery</t>
+          <t>television mode of delivery</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1483,30 +1478,30 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>audio informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>call mode of delivery</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves sound.</t>
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1518,73 +1513,83 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>human interactional mode of delivery</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+          <t>Call mode of delivery that involves textual information in the communication.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011003</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>face to face mode of delivery</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>at-a-distance mode of delivery</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -1596,21 +1601,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>electronic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>computer mode of delivery</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -1622,7 +1627,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1630,25 +1635,30 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>computer mode of delivery</t>
+          <t>radio broadcast mode of delivery</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1656,30 +1666,25 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>wearable electronic device mode of delivery</t>
+          <t>video game mode of delivery</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1687,13 +1692,13 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>e-book mode of delivery</t>
+          <t>website mode of delivery</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -1705,7 +1710,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1713,13 +1718,13 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>mobile application mode of delivery</t>
+          <t>virtual reality mode of delivery</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -1731,7 +1736,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1739,30 +1744,25 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>electronic environmental object mode of delivery</t>
+          <t>electronic billboard mode of delivery</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1770,13 +1770,13 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>electronic billboard mode of delivery</t>
+          <t>online press mode of delivery</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:050558</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1796,25 +1796,30 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>online press mode of delivery</t>
+          <t>wearable electronic device mode of delivery</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1822,25 +1827,30 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>website mode of delivery</t>
+          <t>playable electronic storage mode of delivery</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1848,25 +1858,30 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>mobile digital device mode of delivery</t>
+          <t>electronic environmental object mode of delivery</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1874,13 +1889,13 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>virtual reality mode of delivery</t>
+          <t>mobile application mode of delivery</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -1892,7 +1907,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1900,13 +1915,13 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>television mode of delivery</t>
+          <t>3-D projection mode of delivery</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -1914,16 +1929,16 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Includes internet and satellite television.</t>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1931,30 +1946,25 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>playable electronic storage mode of delivery</t>
+          <t>email mode of delivery</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
+          <t>Electronic mode of delivery that involves communication by email.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1962,13 +1972,13 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>email mode of delivery</t>
+          <t>mobile digital device mode of delivery</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -1980,52 +1990,47 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>radio broadcast mode of delivery</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>audio informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+          <t>Informational mode of delivery that involves sound.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>video game mode of delivery</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>textual mode of delivery</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
+          <t>Informational mode of delivery that involves written text.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2037,47 +2042,52 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>call mode of delivery</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>mass media mode of delivery</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>This is a form of mass media.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>visual informational mode of delivery</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>video call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+          <t>Informational mode of delivery that involves visual images.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2089,52 +2099,47 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011059</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>interactional mode of delivery</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011065</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>arts feature mode of delivery</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2142,118 +2147,113 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Includes automated calls and audio messaging.</t>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011057</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>group-based mode of delivery</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3-D projection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:011064</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>textual mode of delivery</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>gamification mode of delivery</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves written text.</t>
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:050556</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>mass media mode of delivery</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>push mode of delivery</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>This is a form of mass media.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011055</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>individual-based mode of delivery</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves visual images.</t>
+          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -2265,13 +2265,13 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011033</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>environmental change mode of delivery</t>
+          <t>synchronous mode of delivery</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2279,30 +2279,25 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:011057</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>group-based mode of delivery</t>
+          <t>uni-directional mode of delivery</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2310,7 +2305,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -2322,13 +2317,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>asynchronous mode of delivery</t>
+          <t>somatic alteration mode of delivery</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2336,12 +2331,17 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Includes surgery.</t>
         </is>
       </c>
     </row>

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -443,32 +443,32 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>Examples</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>BCI mode of delivery</t>
         </is>
@@ -506,13 +506,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:011055</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>pair-based mode of delivery</t>
+          <t>individual-based mode of delivery</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -520,7 +520,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
+          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -532,13 +532,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011065</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pull mode of delivery</t>
+          <t>arts feature mode of delivery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -546,7 +546,12 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -558,13 +563,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>asynchronous mode of delivery</t>
+          <t>informational mode of delivery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -572,7 +577,12 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -584,52 +594,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011033</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>environmental change mode of delivery</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>human interactional mode of delivery</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>at-a-distance mode of delivery</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -641,21 +646,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011003</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>face to face mode of delivery</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -667,21 +672,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>alimentary mode of delivery</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>textual mode of delivery</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
+          <t>Informational mode of delivery that involves written text.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -693,21 +698,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>mass media mode of delivery</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>pill mode of delivery</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>This is a form of mass media.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -719,21 +729,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>electronic mode of delivery</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -745,7 +755,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -753,30 +763,25 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>virtual reality mode of delivery</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -784,13 +789,18 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>wearable electronic device mode of delivery</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -802,7 +812,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -810,13 +820,18 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>radio broadcast mode of delivery</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -828,21 +843,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>television mode of delivery</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -854,21 +874,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>subcutaneous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>mobile application mode of delivery</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -880,21 +900,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>intramuscular injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>video game mode of delivery</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -906,7 +926,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -914,13 +934,13 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>transdermal mode of delivery</t>
+          <t>website mode of delivery</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -932,7 +952,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -940,13 +960,13 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>buccal mode of delivery</t>
+          <t>email mode of delivery</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+          <t>Electronic mode of delivery that involves communication by email.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -958,21 +978,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>call mode of delivery</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -984,83 +1004,83 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>light exposure mode of delivery</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+          <t>Call mode of delivery that involves textual information in the communication.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>physical pressure mode of delivery</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Includes massage.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>electrical stimulation mode of delivery</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1072,7 +1092,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1080,13 +1100,13 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>temperature mode of delivery</t>
+          <t>online press mode of delivery</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1098,7 +1118,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1106,13 +1126,13 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>wearable stimulus mode of delivery</t>
+          <t>computer mode of delivery</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1124,83 +1144,78 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>chewable substance mode of delivery</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>e-book mode of delivery</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>electronic environmental object mode of delivery</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>human interactional mode of delivery</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>electronic billboard mode of delivery</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1212,7 +1227,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1220,13 +1235,18 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>at-a-distance mode of delivery</t>
+          <t>3-D projection mode of delivery</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1238,7 +1258,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011003</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1246,13 +1266,13 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>face to face mode of delivery</t>
+          <t>mobile digital device mode of delivery</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1264,52 +1284,52 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>playable electronic storage mode of delivery</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>letter mode of delivery</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>visual informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
+          <t>Informational mode of delivery that involves visual images.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1321,21 +1341,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>public notice mode of delivery</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>audio informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
+          <t>Informational mode of delivery that involves sound.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1347,38 +1367,38 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>printed publication mode of delivery</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>printed material mode of delivery</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+          <t>Informational mode of delivery that involves use of printed material.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011006</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1386,13 +1406,13 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>labelling mode of delivery</t>
+          <t>letter mode of delivery</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1404,21 +1424,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>electronic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>public notice mode of delivery</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1430,7 +1450,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1438,13 +1458,13 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>e-book mode of delivery</t>
+          <t>labelling mode of delivery</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1456,7 +1476,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1464,44 +1484,49 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>television mode of delivery</t>
+          <t>printed publication mode of delivery</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Includes internet and satellite television.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:011033</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>environmental change mode of delivery</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>call mode of delivery</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1513,83 +1538,73 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>uni-directional mode of delivery</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>synchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011061</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>asynchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>video call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -1601,21 +1616,26 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011064</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>gamification mode of delivery</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>computer mode of delivery</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -1627,52 +1647,52 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>push mode of delivery</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>radio broadcast mode of delivery</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>somatic alteration mode of delivery</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>video game mode of delivery</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Includes surgery.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -1684,21 +1704,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:011057</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>group-based mode of delivery</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>website mode of delivery</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
+          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -1710,21 +1730,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>pull mode of delivery</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>virtual reality mode of delivery</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -1736,21 +1756,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>electronic billboard mode of delivery</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -1762,21 +1782,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:050558</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>online press mode of delivery</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -1788,7 +1808,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1796,92 +1816,77 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>wearable electronic device mode of delivery</t>
+          <t>alimentary mode of delivery</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>playable electronic storage mode of delivery</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ingestable liquid mode of delivery</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>electronic environmental object mode of delivery</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1889,13 +1894,13 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>mobile application mode of delivery</t>
+          <t>buccal mode of delivery</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -1907,7 +1912,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1915,44 +1920,39 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3-D projection mode of delivery</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>email mode of delivery</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>subcutaneous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -1964,21 +1964,21 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>mobile digital device mode of delivery</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>intramuscular injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -1990,21 +1990,21 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>audio informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>intravenous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves sound.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2016,21 +2016,26 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>textual mode of delivery</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>wearable ingestion mode of delivery</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves written text.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2042,52 +2047,47 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050556</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>mass media mode of delivery</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>transdermal mode of delivery</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>This is a form of mass media.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>inhalation mode of delivery</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves visual images.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2099,21 +2099,26 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>interactional mode of delivery</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2125,52 +2130,47 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>arts feature mode of delivery</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>physical stimulus mode of delivery</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:011057</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>group-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>temperature mode of delivery</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2182,52 +2182,52 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>gamification mode of delivery</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>electrical stimulation mode of delivery</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>push mode of delivery</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>physical pressure mode of delivery</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2239,21 +2239,21 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011055</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>individual-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>wearable stimulus mode of delivery</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -2265,39 +2265,44 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>synchronous mode of delivery</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>light exposure mode of delivery</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
+          <t>BCIO:011059</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>uni-directional mode of delivery</t>
+          <t>interactional mode of delivery</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2305,7 +2310,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -2317,13 +2322,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>somatic alteration mode of delivery</t>
+          <t>pair-based mode of delivery</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2331,17 +2336,12 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Includes surgery.</t>
         </is>
       </c>
     </row>

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -443,32 +443,32 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Examples</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>BCI mode of delivery</t>
         </is>
@@ -506,13 +506,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:011055</t>
+          <t>BCIO:011059</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>individual-based mode of delivery</t>
+          <t>interactional mode of delivery</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -520,10 +520,10 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -532,13 +532,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>arts feature mode of delivery</t>
+          <t>push mode of delivery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -546,15 +546,10 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -563,13 +558,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>informational mode of delivery</t>
+          <t>pair-based mode of delivery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -577,15 +572,10 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -594,50 +584,55 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011065</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>human interactional mode of delivery</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>arts feature mode of delivery</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>at-a-distance mode of delivery</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -646,24 +641,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011003</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>face to face mode of delivery</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -672,55 +667,55 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>textual mode of delivery</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>wearable ingestion mode of delivery</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves written text.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:050556</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>mass media mode of delivery</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>alimentary mode of delivery</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
-        <is>
-          <t>This is a form of mass media.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -729,24 +724,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>electronic mode of delivery</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -755,24 +750,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>virtual reality mode of delivery</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ingestable liquid mode of delivery</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -781,7 +776,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -789,21 +784,16 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>wearable electronic device mode of delivery</t>
+          <t>transdermal mode of delivery</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
-        <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -812,7 +802,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -820,21 +810,16 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>radio broadcast mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
-        <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -843,7 +828,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -851,21 +836,16 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>television mode of delivery</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
-        <is>
-          <t>Includes internet and satellite television.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -874,24 +854,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>mobile application mode of delivery</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>intramuscular injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -900,24 +880,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>video game mode of delivery</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>intravenous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -926,24 +906,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>website mode of delivery</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>subcutaneous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -952,7 +932,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -960,16 +940,16 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>email mode of delivery</t>
+          <t>buccal mode of delivery</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -978,55 +958,55 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>call mode of delivery</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>physical stimulus mode of delivery</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
-        <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1035,29 +1015,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>electrical stimulation mode of delivery</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
-        <is>
-          <t>Includes automated calls and audio messaging.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1066,24 +1041,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>video call mode of delivery</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>temperature mode of delivery</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1092,7 +1067,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050558</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1100,25 +1075,30 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>online press mode of delivery</t>
+          <t>light exposure mode of delivery</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Mode of delivery</t>
+          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1126,25 +1106,30 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>computer mode of delivery</t>
+          <t>physical pressure mode of delivery</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1152,16 +1137,16 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>e-book mode of delivery</t>
+          <t>wearable stimulus mode of delivery</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1170,29 +1155,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011055</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>individual-based mode of delivery</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>electronic environmental object mode of delivery</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
-        <is>
-          <t>Includes robots, and 'internet of things'.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1201,55 +1181,55 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>informational mode of delivery</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>electronic billboard mode of delivery</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3-D projection mode of delivery</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>visual informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+          <t>Informational mode of delivery that involves visual images.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
-        <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1258,24 +1238,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>mobile digital device mode of delivery</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>electronic mode of delivery</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1284,7 +1264,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1292,21 +1272,16 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>playable electronic storage mode of delivery</t>
+          <t>video game mode of delivery</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
-        <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1315,24 +1290,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>mobile digital device mode of delivery</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves visual images.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1341,55 +1316,55 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>audio informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>radio broadcast mode of delivery</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves sound.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>mobile application mode of delivery</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
-        <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1398,7 +1373,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1406,16 +1381,16 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>letter mode of delivery</t>
+          <t>call mode of delivery</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1424,24 +1399,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>public notice mode of delivery</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1450,112 +1425,117 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>labelling mode of delivery</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>printed publication mode of delivery</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+          <t>Call mode of delivery that involves textual information in the communication.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:011033</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>environmental change mode of delivery</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>wearable electronic device mode of delivery</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>uni-directional mode of delivery</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>online press mode of delivery</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1564,107 +1544,117 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>synchronous mode of delivery</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>electronic environmental object mode of delivery</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>asynchronous mode of delivery</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3-D projection mode of delivery</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>gamification mode of delivery</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>playable electronic storage mode of delivery</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>push mode of delivery</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>e-book mode of delivery</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1673,55 +1663,55 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>somatic alteration mode of delivery</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>television mode of delivery</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Includes surgery.</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011057</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>group-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>virtual reality mode of delivery</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1730,24 +1720,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>pull mode of delivery</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>website mode of delivery</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1756,24 +1746,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>computer mode of delivery</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1782,24 +1772,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>email mode of delivery</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
+          <t>Electronic mode of delivery that involves communication by email.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1808,7 +1798,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1816,16 +1806,16 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>alimentary mode of delivery</t>
+          <t>electronic billboard mode of delivery</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1834,24 +1824,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>textual mode of delivery</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
+          <t>Informational mode of delivery that involves written text.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1860,24 +1850,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>human interactional mode of delivery</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>pill mode of delivery</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1886,7 +1876,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1894,16 +1884,16 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>buccal mode of delivery</t>
+          <t>at-a-distance mode of delivery</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1912,7 +1902,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011003</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1920,16 +1910,16 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>face to face mode of delivery</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1938,50 +1928,55 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>printed material mode of delivery</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>subcutaneous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Informational mode of delivery that involves use of printed material.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>intramuscular injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>public notice mode of delivery</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1990,33 +1985,38 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>printed publication mode of delivery</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011006</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2024,21 +2024,16 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>letter mode of delivery</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
-        <is>
-          <t>Includes insulin pump.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2047,7 +2042,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2055,16 +2050,16 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>transdermal mode of delivery</t>
+          <t>labelling mode of delivery</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2073,55 +2068,55 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>inhalation mode of delivery</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>mass media mode of delivery</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>This is a form of mass media.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>chewable substance mode of delivery</t>
+          <t>audio informational mode of delivery</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+          <t>Informational mode of delivery that involves sound.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
-        <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2130,24 +2125,24 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>uni-directional mode of delivery</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2156,50 +2151,55 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:011064</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>gamification mode of delivery</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>temperature mode of delivery</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>pull mode of delivery</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>electrical stimulation mode of delivery</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2208,29 +2208,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>synchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>physical pressure mode of delivery</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
-        <is>
-          <t>Includes massage.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2239,70 +2234,75 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>somatic alteration mode of delivery</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>wearable stimulus mode of delivery</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Includes surgery.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011033</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>environmental change mode of delivery</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>light exposure mode of delivery</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Includes photo therapy</t>
+          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
+          <t>BCIO:011061</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>interactional mode of delivery</t>
+          <t>asynchronous mode of delivery</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2310,10 +2310,10 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2322,13 +2322,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:011057</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>pair-based mode of delivery</t>
+          <t>group-based mode of delivery</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2336,10 +2336,10 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
+          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2365,7 +2365,7 @@
           <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -584,13 +584,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>arts feature mode of delivery</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -598,38 +598,33 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -641,33 +636,38 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>wearable ingestion mode of delivery</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -675,44 +675,39 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>alimentary mode of delivery</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>alimentary mode of delivery</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -724,7 +719,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -733,12 +728,12 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>pill mode of delivery</t>
+          <t>ingestable liquid mode of delivery</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -750,21 +745,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>transdermal mode of delivery</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -776,7 +771,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -784,13 +779,13 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>transdermal mode of delivery</t>
+          <t>buccal mode of delivery</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -932,78 +927,78 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>buccal mode of delivery</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>chewable substance mode of delivery</t>
+          <t>physical stimulus mode of delivery</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>electrical stimulation mode of delivery</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1015,7 +1010,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1023,13 +1018,13 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>electrical stimulation mode of delivery</t>
+          <t>temperature mode of delivery</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1041,7 +1036,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1049,25 +1044,30 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>temperature mode of delivery</t>
+          <t>light exposure mode of delivery</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1075,13 +1075,13 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>light exposure mode of delivery</t>
+          <t>physical pressure mode of delivery</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1089,16 +1089,16 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Includes photo therapy</t>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1106,49 +1106,49 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>physical pressure mode of delivery</t>
+          <t>wearable stimulus mode of delivery</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Includes massage.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011065</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>arts feature mode of delivery</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>wearable stimulus mode of delivery</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>
@@ -2208,13 +2208,13 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>synchronous mode of delivery</t>
+          <t>somatic alteration mode of delivery</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2222,25 +2222,30 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Includes surgery.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>somatic alteration mode of delivery</t>
+          <t>synchronous mode of delivery</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -2248,17 +2253,12 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Includes surgery.</t>
         </is>
       </c>
     </row>

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -443,44 +443,44 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
+          <t>BCIO:050557</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>social influence intervention through mass media</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -489,41 +489,41 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>BCI mode of delivery</t>
+          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>interactional mode of delivery</t>
-        </is>
-      </c>
+          <t>BCIO:011000</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>BCI mode of delivery</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -532,13 +532,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>push mode of delivery</t>
+          <t>uni-directional mode of delivery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -546,10 +546,10 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -558,13 +558,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>pair-based mode of delivery</t>
+          <t>push mode of delivery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -572,10 +572,10 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -584,13 +584,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>pair-based mode of delivery</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -598,10 +598,10 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -610,24 +610,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011057</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>group-based mode of delivery</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -636,55 +636,50 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>synchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>wearable ingestion mode of delivery</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Includes insulin pump.</t>
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011059</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>interactional mode of delivery</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>alimentary mode of delivery</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -693,24 +688,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011061</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>asynchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>pill mode of delivery</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -719,24 +714,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011055</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>individual-based mode of delivery</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -745,24 +740,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>somatic alteration mode of delivery</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>transdermal mode of delivery</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Includes surgery.</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -771,24 +771,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>pull mode of delivery</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>buccal mode of delivery</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -797,24 +797,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>inhalation mode of delivery</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -823,24 +823,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>physical stimulus mode of delivery</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -849,24 +849,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>intramuscular injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>electrical stimulation mode of delivery</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -875,24 +875,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>temperature mode of delivery</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -901,24 +901,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>subcutaneous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>light exposure mode of delivery</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -927,55 +932,55 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>chewable substance mode of delivery</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>wearable stimulus mode of delivery</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>physical pressure mode of delivery</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -984,24 +989,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>electrical stimulation mode of delivery</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1010,24 +1020,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>temperature mode of delivery</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1036,7 +1046,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1044,30 +1054,25 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>light exposure mode of delivery</t>
+          <t>transdermal mode of delivery</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Includes photo therapy</t>
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1075,30 +1080,25 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>physical pressure mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Includes massage.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1106,16 +1106,16 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>wearable stimulus mode of delivery</t>
+          <t>alimentary mode of delivery</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1124,55 +1124,50 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>arts feature mode of delivery</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011055</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>individual-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ingestable liquid mode of delivery</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1181,55 +1176,55 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>buccal mode of delivery</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>wearable ingestion mode of delivery</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves visual images.</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1238,24 +1233,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>electronic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>injection mode of delivery</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1264,24 +1259,24 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>video game mode of delivery</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>intramuscular injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1290,24 +1285,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>mobile digital device mode of delivery</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>subcutaneous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1316,55 +1311,55 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>radio broadcast mode of delivery</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>intravenous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
+          <t>BCIO:011033</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>environmental change mode of delivery</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>mobile application mode of delivery</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
+          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1373,24 +1368,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:011065</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>arts feature mode of delivery</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>call mode of delivery</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1399,24 +1399,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011064</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>gamification mode of delivery</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>video call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1425,117 +1430,112 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>informational mode of delivery</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Includes automated calls and audio messaging.</t>
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>visual informational mode of delivery</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
+          <t>Informational mode of delivery that involves visual images.</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>wearable electronic device mode of delivery</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>mass media mode of delivery</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>This is a form of mass media.</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050558</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>online press mode of delivery</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>audio informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery of a newspaper or magazine.</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+          <t>Informational mode of delivery that involves sound.</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1544,38 +1544,33 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>electronic environmental object mode of delivery</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>human interactional mode of delivery</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Includes robots, and 'internet of things'.</t>
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011003</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1583,30 +1578,25 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3-D projection mode of delivery</t>
+          <t>face to face mode of delivery</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1614,47 +1604,42 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>playable electronic storage mode of delivery</t>
+          <t>at-a-distance mode of delivery</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>e-book mode of delivery</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>textual mode of delivery</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
+          <t>Informational mode of delivery that involves written text.</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1663,38 +1648,33 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>television mode of delivery</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>electronic mode of delivery</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Includes internet and satellite television.</t>
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1702,16 +1682,16 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>virtual reality mode of delivery</t>
+          <t>computer mode of delivery</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1720,7 +1700,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1728,16 +1708,16 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>website mode of delivery</t>
+          <t>online press mode of delivery</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1746,7 +1726,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1754,16 +1734,16 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>computer mode of delivery</t>
+          <t>electronic billboard mode of delivery</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1772,7 +1752,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1780,16 +1760,16 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>email mode of delivery</t>
+          <t>mobile application mode of delivery</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1798,7 +1778,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1806,16 +1786,21 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>electronic billboard mode of delivery</t>
+          <t>wearable electronic device mode of delivery</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1824,24 +1809,29 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>textual mode of delivery</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>playable electronic storage mode of delivery</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves written text.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1850,24 +1840,29 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>human interactional mode of delivery</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>television mode of delivery</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1876,7 +1871,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1884,16 +1879,21 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>at-a-distance mode of delivery</t>
+          <t>radio broadcast mode of delivery</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1902,7 +1902,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011003</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1910,16 +1910,16 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>face to face mode of delivery</t>
+          <t>email mode of delivery</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
+          <t>Electronic mode of delivery that involves communication by email.</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1928,55 +1928,55 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>call mode of delivery</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>public notice mode of delivery</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+          <t>Call mode of delivery that involves textual information in the communication.</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1985,55 +1985,55 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>printed publication mode of delivery</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>letter mode of delivery</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2042,7 +2042,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2050,16 +2050,21 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>labelling mode of delivery</t>
+          <t>electronic environmental object mode of delivery</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Includes robots, and 'internet of things'.</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2068,55 +2073,55 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050556</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>mass media mode of delivery</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>3-D projection mode of delivery</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>This is a form of mass media.</t>
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>audio informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>e-book mode of delivery</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves sound.</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2125,24 +2130,24 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>uni-directional mode of delivery</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>website mode of delivery</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2151,55 +2156,50 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>gamification mode of delivery</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>video game mode of delivery</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>pull mode of delivery</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>mobile digital device mode of delivery</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2208,55 +2208,55 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>somatic alteration mode of delivery</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>virtual reality mode of delivery</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Includes surgery.</t>
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>synchronous mode of delivery</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>printed material mode of delivery</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
+          <t>Informational mode of delivery that involves use of printed material.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2265,55 +2265,50 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011033</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>environmental change mode of delivery</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>labelling mode of delivery</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>asynchronous mode of delivery</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>public notice mode of delivery</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2322,24 +2317,29 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:011057</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>group-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>printed publication mode of delivery</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2348,24 +2348,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:050557</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>social influence intervention through mass media</t>
-        </is>
-      </c>
+          <t>BCIO:011006</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>letter mode of delivery</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,91 +436,79 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr">
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr">
         <is>
           <t>Definition</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
         <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050557</t>
+          <t>BCIO:003000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>social influence intervention through mass media</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_003000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mode of delivery</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>BCIO:050557</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>social influence intervention through mass media</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>BCI mode of delivery</t>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -532,47 +520,44 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>uni-directional mode of delivery</t>
-        </is>
-      </c>
+          <t>BCIO:050315</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050315</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>push mode of delivery</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>BCI mode of delivery</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -584,21 +569,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>pair-based mode of delivery</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>synchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -610,21 +596,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011057</t>
+          <t>BCIO:011061</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>group-based mode of delivery</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>asynchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -636,73 +623,86 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011065</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>synchronous mode of delivery</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>arts feature mode of delivery</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>interactional mode of delivery</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>informational mode of delivery</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>asynchronous mode of delivery</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>audio informational mode of delivery</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Informational mode of delivery that involves sound.</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -714,52 +714,54 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011055</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>individual-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>mass media mode of delivery</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>This is a form of mass media.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>somatic alteration mode of delivery</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>textual mode of delivery</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Includes surgery.</t>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Informational mode of delivery that involves written text.</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -771,47 +773,54 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>pull mode of delivery</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>printed material mode of delivery</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Informational mode of delivery that involves use of printed material.</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>public notice mode of delivery</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -823,21 +832,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>labelling mode of delivery</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -849,21 +859,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011006</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>electrical stimulation mode of delivery</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>letter mode of delivery</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -875,33 +886,39 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>temperature mode of delivery</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>printed publication mode of delivery</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -909,18 +926,14 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>light exposure mode of delivery</t>
+          <t>visual informational mode of delivery</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Includes photo therapy</t>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Informational mode of delivery that involves visual images.</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -932,7 +945,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -940,13 +953,14 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>wearable stimulus mode of delivery</t>
+          <t>electronic mode of delivery</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -958,26 +972,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>physical pressure mode of delivery</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Includes massage.</t>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>call mode of delivery</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -989,78 +999,86 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>chewable substance mode of delivery</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Call mode of delivery that involves textual information in the communication.</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>transdermal mode of delivery</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1072,21 +1090,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>inhalation mode of delivery</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>mobile digital device mode of delivery</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1098,21 +1117,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>alimentary mode of delivery</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>electronic billboard mode of delivery</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1124,7 +1144,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1133,12 +1153,13 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>pill mode of delivery</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+          <t>video game mode of delivery</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -1150,7 +1171,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1159,12 +1180,13 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+          <t>mobile application mode of delivery</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -1176,21 +1198,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>buccal mode of delivery</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>website mode of delivery</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -1202,26 +1225,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>wearable ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Includes insulin pump.</t>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>online press mode of delivery</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -1233,21 +1252,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>injection mode of delivery</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>virtual reality mode of delivery</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -1259,7 +1279,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1268,24 +1288,30 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>intramuscular injection mode of delivery</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
+          <t>playable electronic storage mode of delivery</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1294,24 +1320,30 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>subcutaneous injection mode of delivery</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+          <t>radio broadcast mode of delivery</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1320,43 +1352,45 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+          <t>electronic environmental object mode of delivery</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011033</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>environmental change mode of delivery</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>computer mode of delivery</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -1368,57 +1402,54 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>arts feature mode of delivery</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>television mode of delivery</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>gamification mode of delivery</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>e-book mode of delivery</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -1430,83 +1461,86 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>wearable electronic device mode of delivery</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Informational mode of delivery that involves visual images.</t>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3-D projection mode of delivery</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050556</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>mass media mode of delivery</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>This is a form of mass media.</t>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>email mode of delivery</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Electronic mode of delivery that involves communication by email.</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -1518,21 +1552,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>audio informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>human interactional mode of delivery</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Informational mode of delivery that involves sound.</t>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -1544,21 +1579,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>human interactional mode of delivery</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>at-a-distance mode of delivery</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -1576,13 +1612,14 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>face to face mode of delivery</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
         </is>
@@ -1596,21 +1633,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>at-a-distance mode of delivery</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>pair-based mode of delivery</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -1622,21 +1660,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:011057</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>textual mode of delivery</t>
+          <t>group-based mode of delivery</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Informational mode of delivery that involves written text.</t>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -1648,47 +1687,54 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>electronic mode of delivery</t>
+          <t>somatic alteration mode of delivery</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Includes surgery.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>computer mode of delivery</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>uni-directional mode of delivery</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -1700,47 +1746,54 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:050558</t>
+          <t>BCIO:011064</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>online press mode of delivery</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>gamification mode of delivery</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>electronic billboard mode of delivery</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>pull mode of delivery</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -1752,21 +1805,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
+          <t>BCIO:011059</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>mobile application mode of delivery</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>interactional mode of delivery</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -1778,26 +1832,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>wearable electronic device mode of delivery</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>push mode of delivery</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -1809,26 +1859,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011055</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>playable electronic storage mode of delivery</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>individual-based mode of delivery</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -1840,26 +1886,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>television mode of delivery</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Includes internet and satellite television.</t>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -1871,7 +1913,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1879,18 +1921,14 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>radio broadcast mode of delivery</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -1902,21 +1940,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>email mode of delivery</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>transdermal mode of delivery</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -1928,33 +1967,39 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>call mode of delivery</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>wearable ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1963,17 +2008,13 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
+          <t>inhalation mode of delivery</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -1985,7 +2026,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -1994,12 +2035,13 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>video call mode of delivery</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+          <t>alimentary mode of delivery</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -2011,26 +2053,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Includes automated calls and audio messaging.</t>
+          <t>ingestable liquid mode of delivery</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -2042,26 +2080,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>electronic environmental object mode of delivery</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Includes robots, and 'internet of things'.</t>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -2073,26 +2107,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>3-D projection mode of delivery</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>buccal mode of delivery</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -2104,21 +2134,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>e-book mode of delivery</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>injection mode of delivery</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -2130,21 +2161,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>website mode of delivery</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
+          <t>subcutaneous injection mode of delivery</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -2156,21 +2188,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>video game mode of delivery</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
+          <t>intravenous injection mode of delivery</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -2182,21 +2215,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>mobile digital device mode of delivery</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+          <t>intramuscular injection mode of delivery</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -2208,7 +2242,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2216,13 +2250,14 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>virtual reality mode of delivery</t>
+          <t>physical stimulus mode of delivery</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -2234,26 +2269,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>temperature mode of delivery</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -2265,47 +2296,54 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>labelling mode of delivery</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>physical pressure mode of delivery</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>public notice mode of delivery</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>electrical stimulation mode of delivery</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -2317,26 +2355,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>printed publication mode of delivery</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>light exposure mode of delivery</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -2348,26 +2387,91 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>letter mode of delivery</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>wearable stimulus mode of delivery</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BCIO:011047</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BCIO:011033</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>environmental change mode of delivery</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
     </row>

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -444,32 +444,32 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
           <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -560,7 +560,7 @@
           <t>BCI mode of delivery</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -569,14 +569,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011055</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>synchronous mode of delivery</t>
+          <t>individual-based mode of delivery</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -584,10 +584,10 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -596,14 +596,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>asynchronous mode of delivery</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -611,10 +611,10 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -623,89 +623,79 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>arts feature mode of delivery</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>physical stimulus mode of delivery</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>electrical stimulation mode of delivery</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>audio informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>wearable stimulus mode of delivery</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves sound.</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -714,57 +704,57 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050556</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>mass media mode of delivery</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>light exposure mode of delivery</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>This is a form of mass media.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>textual mode of delivery</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>temperature mode of delivery</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves written text.</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -773,57 +763,57 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>physical pressure mode of delivery</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>public notice mode of delivery</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -832,7 +822,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -841,16 +831,21 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>labelling mode of delivery</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -859,7 +854,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -868,16 +863,16 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>letter mode of delivery</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -886,57 +881,52 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>printed publication mode of delivery</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>intravenous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>subcutaneous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves visual images.</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -945,25 +935,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>electronic mode of delivery</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>intramuscular injection mode of delivery</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -972,7 +962,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -981,16 +971,16 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>call mode of delivery</t>
+          <t>buccal mode of delivery</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -999,71 +989,61 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>inhalation mode of delivery</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>alimentary mode of delivery</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Includes automated calls and audio messaging.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1073,15 +1053,15 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>video call mode of delivery</t>
+          <t>ingestable liquid mode of delivery</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1090,25 +1070,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>mobile digital device mode of delivery</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1117,7 +1097,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1126,16 +1106,16 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>electronic billboard mode of delivery</t>
+          <t>transdermal mode of delivery</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1144,25 +1124,30 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>video game mode of delivery</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1171,25 +1156,30 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>somatic alteration mode of delivery</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>mobile application mode of delivery</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Includes surgery.</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1198,25 +1188,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>push mode of delivery</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>website mode of delivery</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1225,25 +1215,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050558</t>
+          <t>BCIO:011059</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>interactional mode of delivery</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>online press mode of delivery</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery of a newspaper or magazine.</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1252,25 +1242,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>synchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>virtual reality mode of delivery</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1279,121 +1269,111 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011033</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>environmental change mode of delivery</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>playable electronic storage mode of delivery</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:011057</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>group-based mode of delivery</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>radio broadcast mode of delivery</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011061</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>asynchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>electronic environmental object mode of delivery</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Includes robots, and 'internet of things'.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>pull mode of delivery</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>computer mode of delivery</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1402,57 +1382,52 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>pair-based mode of delivery</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>television mode of delivery</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Includes internet and satellite television.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>uni-directional mode of delivery</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>e-book mode of delivery</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1461,89 +1436,94 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:011064</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>gamification mode of delivery</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>wearable electronic device mode of delivery</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011065</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>arts feature mode of delivery</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3-D projection mode of delivery</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>informational mode of delivery</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>email mode of delivery</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1552,7 +1532,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1560,17 +1540,22 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>human interactional mode of delivery</t>
+          <t>printed material mode of delivery</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
+          <t>Informational mode of delivery that involves use of printed material.</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1579,7 +1564,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1588,16 +1573,21 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>at-a-distance mode of delivery</t>
+          <t>printed publication mode of delivery</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1606,7 +1596,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:011003</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1615,16 +1605,16 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>face to face mode of delivery</t>
+          <t>labelling mode of delivery</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1633,25 +1623,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:011006</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>pair-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>letter mode of delivery</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1660,25 +1650,25 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011057</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>group-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>public notice mode of delivery</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1687,57 +1677,52 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>somatic alteration mode of delivery</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>visual informational mode of delivery</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Informational mode of delivery that involves visual images.</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Includes surgery.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>uni-directional mode of delivery</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>human interactional mode of delivery</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1746,57 +1731,52 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
+          <t>BCIO:011003</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>gamification mode of delivery</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>face to face mode of delivery</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>pull mode of delivery</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>at-a-distance mode of delivery</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1805,25 +1785,25 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>interactional mode of delivery</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>textual mode of delivery</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
+          <t>Informational mode of delivery that involves written text.</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1832,25 +1812,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>push mode of delivery</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>audio informational mode of delivery</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
+          <t>Informational mode of delivery that involves sound.</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1859,25 +1839,30 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:011055</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>individual-based mode of delivery</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>mass media mode of delivery</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>This is a form of mass media.</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1886,25 +1871,25 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>electronic mode of delivery</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1913,25 +1898,30 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>wearable electronic device mode of delivery</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1940,7 +1930,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1949,16 +1939,16 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>transdermal mode of delivery</t>
+          <t>electronic billboard mode of delivery</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1967,7 +1957,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1976,30 +1966,25 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>virtual reality mode of delivery</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Includes insulin pump.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2008,16 +1993,21 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>electronic environmental object mode of delivery</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Includes robots, and 'internet of things'.</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2026,7 +2016,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2035,16 +2025,16 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>alimentary mode of delivery</t>
+          <t>website mode of delivery</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2053,25 +2043,30 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3-D projection mode of delivery</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2080,25 +2075,25 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>pill mode of delivery</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>e-book mode of delivery</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2107,7 +2102,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2116,16 +2111,21 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>buccal mode of delivery</t>
+          <t>playable electronic storage mode of delivery</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2134,7 +2134,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2143,16 +2143,16 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>mobile digital device mode of delivery</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2161,25 +2161,25 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>subcutaneous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>computer mode of delivery</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2188,25 +2188,25 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>online press mode of delivery</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2215,25 +2215,25 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>intramuscular injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>call mode of delivery</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2242,25 +2242,25 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2269,25 +2269,30 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>temperature mode of delivery</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2296,39 +2301,39 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>physical pressure mode of delivery</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Call mode of delivery that involves textual information in the communication.</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Includes massage.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2337,16 +2342,21 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>electrical stimulation mode of delivery</t>
+          <t>television mode of delivery</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2355,7 +2365,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2364,21 +2374,21 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>light exposure mode of delivery</t>
+          <t>radio broadcast mode of delivery</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Includes photo therapy</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2387,7 +2397,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2396,16 +2406,16 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>wearable stimulus mode of delivery</t>
+          <t>video game mode of delivery</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2414,64 +2424,54 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>chewable substance mode of delivery</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>mobile application mode of delivery</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:011033</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>environmental change mode of delivery</t>
-        </is>
-      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>email mode of delivery</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves communication by email.</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -801,7 +801,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>An occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t.</t>
+          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organism participates.</t>
+          <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+          <t xml:space="preserve">Valence is a process profile of an emotion, mood, or affective bodily feeling (such as pleasure and pain). Valence can be positive or negative, with different strengths in both directions. For example, pleasure is positively valenced while pain is negatively valenced.  </t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>A mental process that has positive or negative valence.</t>
+          <t xml:space="preserve">An affective process is any process that has positive or negative valence. </t>
         </is>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
-          <t>An &lt;independent continuant&gt; that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
     </row>
@@ -6494,7 +6494,7 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>établissement de pharmacologie</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="I217" t="inlineStr"/>
@@ -6803,7 +6803,7 @@
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -6986,7 +6986,7 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
@@ -7479,7 +7479,7 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>fiat object</t>
+          <t>fiat object part</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -7667,7 +7667,7 @@
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
-          <t>A continuant that is dependent on one or other independent continuant bearers. For every instance of A requires some instance of (an independent continuant type) B but which instance of B serves can change from time to time.</t>
+          <t>b is a generically dependent continuant = Def. b is a continuant that g-depends_on one or more other entities. (axiom label in BFO2 Reference: [074-001])</t>
         </is>
       </c>
     </row>
@@ -7942,7 +7942,7 @@
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>dose range specification</t>
+          <t>spécification d’intervalle de dose</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -8317,7 +8317,7 @@
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
-          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
+          <t>A continuant that inheres in or is borne by other entities. Every instance of A requires some specific instance of B which must always be the same.</t>
         </is>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
-          <t>realizable</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -8765,7 +8765,7 @@
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
+          <t xml:space="preserve">A mental disposition is a bodily disposition that is realized in a mental process. </t>
         </is>
       </c>
     </row>
